--- a/update_data/data/bank_psbc/intention/intention.xlsx
+++ b/update_data/data/bank_psbc/intention/intention.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="-195" windowWidth="10530" windowHeight="7890"/>
+    <workbookView xWindow="5370" yWindow="-195" windowWidth="22305" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -541,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>您要补办卡类？存折？还是网银工具？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>可以打客服电话根据提示操作或可以用绑定的银行卡手机编辑短信QX发送至95580或者持本人身份证、银行卡到银行柜台办理</t>
   </si>
   <si>
@@ -647,6 +643,10 @@
   </si>
   <si>
     <t>您用银行卡还是存折存款？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您要补办借记卡？存折？还是网银工具？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1105,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1299,7 +1299,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C17" t="s">
         <v>162</v>
@@ -1422,7 +1422,7 @@
         <v>38</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>163</v>
@@ -1444,7 +1444,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>163</v>
@@ -1521,7 +1521,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>163</v>
@@ -1529,10 +1529,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>163</v>
@@ -1610,7 +1610,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>161</v>
@@ -1622,7 +1622,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>161</v>
@@ -1655,7 +1655,7 @@
         <v>54</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>161</v>
@@ -1688,7 +1688,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>161</v>
@@ -1721,7 +1721,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>161</v>
@@ -1754,7 +1754,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>164</v>
@@ -1766,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>164</v>
@@ -1777,7 +1777,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>164</v>
@@ -1788,7 +1788,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>164</v>
@@ -1799,7 +1799,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>164</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="C66" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1854,7 +1854,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>164</v>
@@ -1877,7 +1877,7 @@
         <v>66</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>161</v>
@@ -2000,7 +2000,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>161</v>
@@ -2011,7 +2011,7 @@
         <v>138</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>161</v>
@@ -2034,7 +2034,7 @@
         <v>140</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>161</v>
@@ -2112,7 +2112,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>165</v>
@@ -2123,7 +2123,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>165</v>
@@ -2145,7 +2145,7 @@
         <v>147</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>165</v>
@@ -2178,7 +2178,7 @@
         <v>89</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>166</v>
@@ -2201,7 +2201,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>161</v>
@@ -2212,7 +2212,7 @@
         <v>91</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>161</v>
@@ -2223,7 +2223,7 @@
         <v>92</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>161</v>
@@ -2234,7 +2234,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>161</v>
@@ -2245,7 +2245,7 @@
         <v>94</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>161</v>
@@ -2289,7 +2289,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>161</v>
@@ -2300,7 +2300,7 @@
         <v>99</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>161</v>
@@ -2308,10 +2308,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>161</v>

--- a/update_data/data/bank_psbc/intention/intention.xlsx
+++ b/update_data/data/bank_psbc/intention/intention.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="197">
   <si>
     <t>意图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -583,9 +583,6 @@
   <si>
     <t>存款两万以下请到自助存取款机办理，存款两万以上请取号到柜台办理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请您到自助设备办理，或者取号到柜台办理存款业务。</t>
   </si>
   <si>
     <t>两万至五万在柜台办理，两万以下在自助设备</t>
@@ -1105,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1529,10 +1526,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>184</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>163</v>
@@ -1610,7 +1607,7 @@
         <v>47</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>161</v>
@@ -1654,8 +1651,8 @@
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>181</v>
+      <c r="B49" t="s">
+        <v>126</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>161</v>
@@ -1721,7 +1718,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>161</v>
@@ -1754,7 +1751,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>164</v>
@@ -1766,7 +1763,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>164</v>
@@ -1777,7 +1774,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>164</v>
@@ -1788,7 +1785,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>164</v>
@@ -1840,13 +1837,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="C66" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2112,7 +2109,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>165</v>
@@ -2123,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>165</v>
@@ -2145,7 +2142,7 @@
         <v>147</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>165</v>
@@ -2308,10 +2305,10 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>161</v>

--- a/update_data/data/bank_psbc/intention/intention.xlsx
+++ b/update_data/data/bank_psbc/intention/intention.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="198">
   <si>
     <t>意图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,6 +644,10 @@
   </si>
   <si>
     <t>您要补办借记卡？存折？还是网银工具？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机银行二维码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -651,7 +655,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -697,6 +701,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -767,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -793,6 +805,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1102,14 +1115,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.875" customWidth="1"/>
     <col min="2" max="2" width="100" customWidth="1"/>
+    <col min="4" max="4" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1969,6 +1983,9 @@
       <c r="C77" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="D77" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
@@ -2002,6 +2019,9 @@
       <c r="C80" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="D80" s="19" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6" t="s">
@@ -2182,7 +2202,7 @@
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:4">
       <c r="A97" s="7" t="s">
         <v>90</v>
       </c>
@@ -2192,8 +2212,11 @@
       <c r="C97" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="6" t="s">
         <v>93</v>
       </c>
@@ -2204,7 +2227,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:4">
       <c r="A99" s="6" t="s">
         <v>91</v>
       </c>
@@ -2215,7 +2238,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:4">
       <c r="A100" s="6" t="s">
         <v>92</v>
       </c>
@@ -2226,7 +2249,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:4">
       <c r="A101" s="6" t="s">
         <v>95</v>
       </c>
@@ -2237,7 +2260,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4">
       <c r="A102" s="6" t="s">
         <v>94</v>
       </c>
@@ -2248,7 +2271,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>96</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>98</v>
       </c>
@@ -2270,7 +2293,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4">
       <c r="A105" s="14" t="s">
         <v>97</v>
       </c>
@@ -2281,7 +2304,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>100</v>
       </c>
@@ -2292,7 +2315,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4">
       <c r="A107" s="3" t="s">
         <v>99</v>
       </c>
@@ -2303,7 +2326,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4">
       <c r="A108" s="16" t="s">
         <v>188</v>
       </c>

--- a/update_data/data/bank_psbc/intention/intention.xlsx
+++ b/update_data/data/bank_psbc/intention/intention.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="197">
   <si>
     <t>意图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -606,10 +606,6 @@
   </si>
   <si>
     <t>尴尬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>携带本人身份证和银行卡取号到柜台办理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1115,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1732,7 +1728,7 @@
         <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>161</v>
@@ -1765,7 +1761,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>164</v>
@@ -1777,7 +1773,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>164</v>
@@ -1788,7 +1784,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>164</v>
@@ -1799,7 +1795,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>164</v>
@@ -1984,7 +1980,7 @@
         <v>161</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2020,7 +2016,7 @@
         <v>161</v>
       </c>
       <c r="D80" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2129,7 +2125,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>165</v>
@@ -2140,7 +2136,7 @@
         <v>80</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>165</v>
@@ -2162,7 +2158,7 @@
         <v>147</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>165</v>
@@ -2213,7 +2209,7 @@
         <v>161</v>
       </c>
       <c r="D97" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2328,10 +2324,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>161</v>
